--- a/26G_Mentor_Mentee_Monthly_Report_ThuVo_HauLe.xlsx
+++ b/26G_Mentor_Mentee_Monthly_Report_ThuVo_HauLe.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rvc-vnas-01\CIS\Management\03_Training\Mentor_Mentee_Training\26G\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesyh\Documents\GitHub\bridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D2923E-D760-46C1-AB08-D1208EF33C63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Report" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -241,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1008,18 +1015,75 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,63 +1099,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,7 +1113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1122,9 +1129,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1169,7 +1176,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1198,7 +1204,7 @@
                       <a:pPr>
                         <a:defRPr sz="1400" b="1"/>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -1242,9 +1248,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9EB7-41D9-8C5E-F016A0F45248}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1405,6 +1413,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EB7-41D9-8C5E-F016A0F45248}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1433,7 +1446,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1471,8 +1483,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9EB7-41D9-8C5E-F016A0F45248}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1632,6 +1645,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9EB7-41D9-8C5E-F016A0F45248}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1660,7 +1678,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1668,8 +1685,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9EB7-41D9-8C5E-F016A0F45248}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1829,6 +1847,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9EB7-41D9-8C5E-F016A0F45248}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1941,7 +1964,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2016,7 +2038,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2084,9 +2105,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2123,7 +2144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2226,7 +2246,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2271,7 +2290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$9:$H$9</c:f>
+              <c:f>Sheet2!$D$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2294,6 +2313,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B820-4E6D-9954-0C2FF7488D28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2362,7 +2386,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2383,7 +2406,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$24:$H$24</c:f>
+              <c:f>Sheet2!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2406,6 +2429,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B820-4E6D-9954-0C2FF7488D28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2474,7 +2502,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2518,6 +2545,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B820-4E6D-9954-0C2FF7488D28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2574,6 +2606,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B820-4E6D-9954-0C2FF7488D28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2687,7 +2724,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3951,7 +3987,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3986,7 +4028,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4266,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BE29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4292,240 +4340,240 @@
     </row>
     <row r="4" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="93" t="s">
+      <c r="I5" s="89"/>
+      <c r="J5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91" t="s">
+      <c r="K5" s="79"/>
+      <c r="L5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91" t="s">
+      <c r="M5" s="79"/>
+      <c r="N5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91" t="s">
+      <c r="O5" s="79"/>
+      <c r="P5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91" t="s">
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91" t="s">
+      <c r="S5" s="79"/>
+      <c r="T5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91" t="s">
+      <c r="U5" s="79"/>
+      <c r="V5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91" t="s">
+      <c r="W5" s="79"/>
+      <c r="X5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91" t="s">
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91" t="s">
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91" t="s">
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91" t="s">
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="91" t="s">
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91" t="s">
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91" t="s">
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="91" t="s">
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="91" t="s">
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91" t="s">
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91" t="s">
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="AU5" s="91"/>
-      <c r="AV5" s="91" t="s">
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91" t="s">
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91" t="s">
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="91" t="s">
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91" t="s">
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="BE5" s="105"/>
+      <c r="BE5" s="80"/>
     </row>
     <row r="6" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="96" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="94">
+      <c r="I6" s="91"/>
+      <c r="J6" s="87">
         <v>43040</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92">
+      <c r="K6" s="81"/>
+      <c r="L6" s="81">
         <v>43070</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92">
+      <c r="M6" s="81"/>
+      <c r="N6" s="81">
         <v>43101</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92">
+      <c r="O6" s="81"/>
+      <c r="P6" s="81">
         <v>43132</v>
       </c>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92">
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81">
         <v>43160</v>
       </c>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92">
+      <c r="S6" s="81"/>
+      <c r="T6" s="81">
         <v>43191</v>
       </c>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92">
+      <c r="U6" s="81"/>
+      <c r="V6" s="81">
         <v>43221</v>
       </c>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92">
+      <c r="W6" s="81"/>
+      <c r="X6" s="81">
         <v>43252</v>
       </c>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92">
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81">
         <v>43282</v>
       </c>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92">
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81">
         <v>43313</v>
       </c>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92">
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81">
         <v>43344</v>
       </c>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92">
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81">
         <v>43374</v>
       </c>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="92">
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81">
         <v>43405</v>
       </c>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92">
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81">
         <v>43435</v>
       </c>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92">
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81">
         <v>43466</v>
       </c>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92">
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81">
         <v>43497</v>
       </c>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92">
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="81">
         <v>43525</v>
       </c>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92">
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="81">
         <v>43556</v>
       </c>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92">
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="81">
         <v>43586</v>
       </c>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="92">
+      <c r="AU6" s="81"/>
+      <c r="AV6" s="81">
         <v>43617</v>
       </c>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92">
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="81">
         <v>43647</v>
       </c>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92">
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="81">
         <v>43678</v>
       </c>
-      <c r="BA6" s="92"/>
-      <c r="BB6" s="92">
+      <c r="BA6" s="81"/>
+      <c r="BB6" s="81">
         <v>43709</v>
       </c>
-      <c r="BC6" s="92"/>
-      <c r="BD6" s="92">
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81">
         <v>43739</v>
       </c>
-      <c r="BE6" s="106"/>
+      <c r="BE6" s="82"/>
     </row>
     <row r="7" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="51" t="s">
         <v>10</v>
       </c>
@@ -4678,7 +4726,7 @@
       </c>
     </row>
     <row r="8" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -4773,7 +4821,7 @@
       <c r="BE8" s="6"/>
     </row>
     <row r="9" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B9" s="86"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
@@ -4866,7 +4914,7 @@
       <c r="BE9" s="13"/>
     </row>
     <row r="10" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B10" s="86"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
@@ -4959,7 +5007,7 @@
       <c r="BE10" s="13"/>
     </row>
     <row r="11" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B11" s="86"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
@@ -5052,7 +5100,7 @@
       <c r="BE11" s="13"/>
     </row>
     <row r="12" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B12" s="86"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
@@ -5145,7 +5193,7 @@
       <c r="BE12" s="13"/>
     </row>
     <row r="13" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="16" t="s">
         <v>45</v>
       </c>
@@ -5238,7 +5286,7 @@
       <c r="BE13" s="20"/>
     </row>
     <row r="14" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
@@ -5376,7 +5424,7 @@
       <c r="BE14" s="49"/>
     </row>
     <row r="15" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="104" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -5471,7 +5519,7 @@
       <c r="BE15" s="6"/>
     </row>
     <row r="16" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B16" s="86"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="9" t="s">
         <v>47</v>
       </c>
@@ -5564,7 +5612,7 @@
       <c r="BE16" s="13"/>
     </row>
     <row r="17" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B17" s="86"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
@@ -5657,7 +5705,7 @@
       <c r="BE17" s="13"/>
     </row>
     <row r="18" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B18" s="86"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
@@ -5750,7 +5798,7 @@
       <c r="BE18" s="13"/>
     </row>
     <row r="19" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B19" s="86"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="9" t="s">
         <v>50</v>
       </c>
@@ -5843,7 +5891,7 @@
       <c r="BE19" s="13"/>
     </row>
     <row r="20" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="9" t="s">
         <v>51</v>
       </c>
@@ -5936,7 +5984,7 @@
       <c r="BE20" s="13"/>
     </row>
     <row r="21" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="86"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="16" t="s">
         <v>52</v>
       </c>
@@ -6029,7 +6077,7 @@
       <c r="BE21" s="20"/>
     </row>
     <row r="22" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="87"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="38" t="s">
         <v>53</v>
       </c>
@@ -6167,7 +6215,7 @@
       <c r="BE22" s="49"/>
     </row>
     <row r="23" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -6180,7 +6228,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="68">
-        <f>AVERAGE(J23,L23,N23,P23,R23,T23,V23,X23,Z23,AB23,AD23,AF23,AH23,AJ23,AL23,AN23,AP23,AR23,AT23,AV23,AX23,AZ23,BB23,BD23)</f>
+        <f t="shared" ref="H23:H28" si="1">AVERAGE(J23,L23,N23,P23,R23,T23,V23,X23,Z23,AB23,AD23,AF23,AH23,AJ23,AL23,AN23,AP23,AR23,AT23,AV23,AX23,AZ23,BB23,BD23)</f>
         <v>1.4642857142857142</v>
       </c>
       <c r="I23" s="28"/>
@@ -6262,7 +6310,7 @@
       <c r="BE23" s="6"/>
     </row>
     <row r="24" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
@@ -6273,7 +6321,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="69">
-        <f>AVERAGE(J24,L24,N24,P24,R24,T24,V24,X24,Z24,AB24,AD24,AF24,AH24,AJ24,AL24,AN24,AP24,AR24,AT24,AV24,AX24,AZ24,BB24,BD24)</f>
+        <f t="shared" si="1"/>
         <v>1.4857142857142855</v>
       </c>
       <c r="I24" s="29"/>
@@ -6355,7 +6403,7 @@
       <c r="BE24" s="13"/>
     </row>
     <row r="25" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="9" t="s">
         <v>56</v>
       </c>
@@ -6366,7 +6414,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="69">
-        <f>AVERAGE(J25,L25,N25,P25,R25,T25,V25,X25,Z25,AB25,AD25,AF25,AH25,AJ25,AL25,AN25,AP25,AR25,AT25,AV25,AX25,AZ25,BB25,BD25)</f>
+        <f t="shared" si="1"/>
         <v>1.9428571428571428</v>
       </c>
       <c r="I25" s="29"/>
@@ -6448,7 +6496,7 @@
       <c r="BE25" s="13"/>
     </row>
     <row r="26" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
@@ -6459,7 +6507,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="69">
-        <f>AVERAGE(J26,L26,N26,P26,R26,T26,V26,X26,Z26,AB26,AD26,AF26,AH26,AJ26,AL26,AN26,AP26,AR26,AT26,AV26,AX26,AZ26,BB26,BD26)</f>
+        <f t="shared" si="1"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="I26" s="29"/>
@@ -6541,7 +6589,7 @@
       <c r="BE26" s="13"/>
     </row>
     <row r="27" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="9" t="s">
         <v>39</v>
       </c>
@@ -6552,7 +6600,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="69">
-        <f>AVERAGE(J27,L27,N27,P27,R27,T27,V27,X27,Z27,AB27,AD27,AF27,AH27,AJ27,AL27,AN27,AP27,AR27,AT27,AV27,AX27,AZ27,BB27,BD27)</f>
+        <f t="shared" si="1"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="I27" s="29"/>
@@ -6634,7 +6682,7 @@
       <c r="BE27" s="13"/>
     </row>
     <row r="28" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="86"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="16" t="s">
         <v>40</v>
       </c>
@@ -6645,7 +6693,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="19"/>
       <c r="H28" s="70">
-        <f>AVERAGE(J28,L28,N28,P28,R28,T28,V28,X28,Z28,AB28,AD28,AF28,AH28,AJ28,AL28,AN28,AP28,AR28,AT28,AV28,AX28,AZ28,BB28,BD28)</f>
+        <f t="shared" si="1"/>
         <v>2.0214285714285714</v>
       </c>
       <c r="I28" s="27"/>
@@ -6727,7 +6775,7 @@
       <c r="BE28" s="20"/>
     </row>
     <row r="29" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="38" t="s">
         <v>53</v>
       </c>
@@ -6866,48 +6914,11 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="BD5:BE5"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B23:B29"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
@@ -6920,11 +6931,48 @@
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="BD5:BE5"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6935,10 +6983,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
@@ -7140,11 +7188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -7187,10 +7235,10 @@
     </row>
     <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" s="110" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D3" s="58">
         <v>1</v>
@@ -7204,113 +7252,113 @@
       <c r="G3" s="58">
         <v>2</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B4" s="110"/>
       <c r="C4" s="56" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="58">
         <v>1</v>
       </c>
       <c r="E4" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="58">
         <v>2</v>
       </c>
       <c r="G4" s="58">
-        <v>3</v>
-      </c>
-      <c r="H4" s="58">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H4" s="61">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B5" s="110"/>
       <c r="C5" s="56" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D5" s="58">
         <v>1</v>
       </c>
       <c r="E5" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="58">
         <v>2</v>
       </c>
       <c r="G5" s="58">
-        <v>3</v>
-      </c>
-      <c r="H5" s="58">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H5" s="61">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B6" s="110"/>
-      <c r="C6" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="58">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58">
-        <v>2</v>
-      </c>
-      <c r="F6" s="58">
-        <v>2</v>
-      </c>
-      <c r="G6" s="58">
-        <v>3</v>
-      </c>
-      <c r="H6" s="58">
-        <v>3</v>
+      <c r="C6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="74">
+        <v>1</v>
+      </c>
+      <c r="E6" s="74">
+        <v>1</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="75">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B7" s="110"/>
-      <c r="C7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="58">
-        <v>1</v>
-      </c>
-      <c r="E7" s="58">
-        <v>2</v>
-      </c>
-      <c r="F7" s="58">
-        <v>2</v>
-      </c>
-      <c r="G7" s="58">
-        <v>2</v>
-      </c>
-      <c r="H7" s="58">
-        <v>3</v>
+      <c r="C7" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="74">
+        <v>1</v>
+      </c>
+      <c r="E7" s="74">
+        <v>1</v>
+      </c>
+      <c r="F7" s="74">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74">
+        <v>1</v>
+      </c>
+      <c r="H7" s="75">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="110"/>
       <c r="C8" s="56" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" s="58">
         <v>1</v>
       </c>
       <c r="E8" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="58">
         <v>2</v>
       </c>
-      <c r="H8" s="58">
-        <v>3</v>
+      <c r="H8" s="61">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
@@ -7324,19 +7372,19 @@
       </c>
       <c r="E9" s="60">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F9" s="60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="60">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H9" s="60">
         <f>AVERAGE(H3:H8)</f>
-        <v>2.8333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -7516,10 +7564,10 @@
     </row>
     <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D18" s="58">
         <v>1</v>
@@ -7533,114 +7581,114 @@
       <c r="G18" s="58">
         <v>2</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="58">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="110"/>
       <c r="C19" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" s="58">
         <v>1</v>
       </c>
       <c r="E19" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="58">
         <v>2</v>
       </c>
       <c r="G19" s="58">
-        <v>2</v>
-      </c>
-      <c r="H19" s="61">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="58">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="110"/>
       <c r="C20" s="56" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D20" s="58">
         <v>1</v>
       </c>
       <c r="E20" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="58">
         <v>2</v>
       </c>
       <c r="G20" s="58">
-        <v>2</v>
-      </c>
-      <c r="H20" s="61">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H20" s="58">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="110"/>
-      <c r="C21" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="74">
-        <v>1</v>
-      </c>
-      <c r="E21" s="74">
-        <v>1</v>
-      </c>
-      <c r="F21" s="74">
-        <v>1</v>
-      </c>
-      <c r="G21" s="74">
-        <v>1</v>
-      </c>
-      <c r="H21" s="75">
-        <v>1</v>
+      <c r="C21" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="58">
+        <v>1</v>
+      </c>
+      <c r="E21" s="58">
+        <v>2</v>
+      </c>
+      <c r="F21" s="58">
+        <v>2</v>
+      </c>
+      <c r="G21" s="58">
+        <v>3</v>
+      </c>
+      <c r="H21" s="58">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="110"/>
-      <c r="C22" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="74">
-        <v>1</v>
-      </c>
-      <c r="E22" s="74">
-        <v>1</v>
-      </c>
-      <c r="F22" s="74">
-        <v>1</v>
-      </c>
-      <c r="G22" s="74">
-        <v>1</v>
-      </c>
-      <c r="H22" s="75">
-        <v>1</v>
+      <c r="C22" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="58">
+        <v>1</v>
+      </c>
+      <c r="E22" s="58">
+        <v>2</v>
+      </c>
+      <c r="F22" s="58">
+        <v>2</v>
+      </c>
+      <c r="G22" s="58">
+        <v>2</v>
+      </c>
+      <c r="H22" s="58">
+        <v>3</v>
       </c>
       <c r="J22" s="76"/>
     </row>
     <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="110"/>
       <c r="C23" s="56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D23" s="58">
         <v>1</v>
       </c>
       <c r="E23" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="58">
         <v>2</v>
       </c>
-      <c r="H23" s="61">
-        <v>2</v>
+      <c r="H23" s="58">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="14.25" x14ac:dyDescent="0.25">
@@ -7654,19 +7702,19 @@
       </c>
       <c r="E24" s="60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="F24" s="60">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="60">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="H24" s="60">
         <f>AVERAGE(H18:H23)</f>
-        <v>1.6666666666666667</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -7674,31 +7722,31 @@
         <v>53</v>
       </c>
       <c r="D25" s="78">
-        <f t="shared" ref="D25:G25" si="2">AVERAGE(D9,D17,D24)</f>
+        <f>AVERAGE(D24,D17,D9)</f>
         <v>1</v>
       </c>
       <c r="E25" s="78">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E24,E17,E9)</f>
         <v>1.4682539682539684</v>
       </c>
       <c r="F25" s="78">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F24,F17,F9)</f>
         <v>1.7857142857142858</v>
       </c>
       <c r="G25" s="78">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G24,G17,G9)</f>
         <v>2.0555555555555558</v>
       </c>
       <c r="H25" s="78">
-        <f>AVERAGE(H9,H17,H24)</f>
+        <f>AVERAGE(H24,H17,H9)</f>
         <v>2.4047619047619047</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B24"/>
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B18:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
